--- a/ExecutionTestData/5/TestData.xlsx
+++ b/ExecutionTestData/5/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ExecutionTestData\Batch5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jai Mata Dii\DBS_Automation\ExecutionTestData\5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="145">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -458,9 +458,6 @@
     <t>OPPO_A53_Android_10.0.0_bd07c</t>
   </si>
   <si>
-    <t>11.0.0</t>
-  </si>
-  <si>
     <t>EndPoint</t>
   </si>
   <si>
@@ -477,25 +474,13 @@
   </si>
   <si>
     <t>121212</t>
-  </si>
-  <si>
-    <t>10.0.0</t>
-  </si>
-  <si>
-    <t>VIVO_Y17_Android_9.0.0_41f40</t>
-  </si>
-  <si>
-    <t>MOTOROLA_OneVision_Android_9.0.0_3755b</t>
-  </si>
-  <si>
-    <t>VIVO_V9_Android_9.0.0_8f1e4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -540,11 +525,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF202124"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -620,7 +600,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -672,9 +652,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -686,55 +664,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCC4125"/>
-          <bgColor rgb="FFCC4125"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCC4125"/>
-          <bgColor rgb="FFCC4125"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCC4125"/>
-          <bgColor rgb="FFCC4125"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1089,7 +1019,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1139,7 +1069,7 @@
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -1189,7 +1119,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>15</v>
@@ -1236,22 +1166,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:S2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="37.85546875" customWidth="1"/>
     <col min="3" max="3" width="42" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" customWidth="1"/>
-    <col min="5" max="5" width="31.85546875" customWidth="1"/>
-    <col min="8" max="19" width="17.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
@@ -1261,115 +1188,19 @@
       <c r="C1" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="L1" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="M1" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="N1" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="O1" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="P1" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q1" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="R1" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="S1" s="20" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="I2" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="J2" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="K2" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="L2" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="M2" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="N2" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="O2" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="P2" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q2" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="R2" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="S2" s="23" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B2" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
@@ -1379,56 +1210,8 @@
       <c r="C3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="O3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="P3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="R3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="S3" s="17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
@@ -1438,292 +1221,52 @@
       <c r="C4" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q4" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="R4" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="S4" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="N5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="O5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="P5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="R5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="S5" s="19" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="M6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="N6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="O6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="P6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="R6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="S6" s="15" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="L7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="M7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="N7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="O7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="P7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="R7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="S7" s="16" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="K8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="L8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="M8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="N8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="O8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="P8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="R8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="S8" s="16" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
@@ -1733,56 +1276,8 @@
       <c r="C9" s="18">
         <v>2</v>
       </c>
-      <c r="D9" s="18">
-        <v>3</v>
-      </c>
-      <c r="E9" s="18">
-        <v>4</v>
-      </c>
-      <c r="F9" s="18">
-        <v>5</v>
-      </c>
-      <c r="G9" s="18">
-        <v>6</v>
-      </c>
-      <c r="H9" s="18">
-        <v>7</v>
-      </c>
-      <c r="I9" s="18">
-        <v>8</v>
-      </c>
-      <c r="J9" s="18">
-        <v>9</v>
-      </c>
-      <c r="K9" s="18">
-        <v>10</v>
-      </c>
-      <c r="L9" s="18">
-        <v>11</v>
-      </c>
-      <c r="M9" s="18">
-        <v>12</v>
-      </c>
-      <c r="N9" s="18">
-        <v>13</v>
-      </c>
-      <c r="O9" s="18">
-        <v>14</v>
-      </c>
-      <c r="P9" s="18">
-        <v>15</v>
-      </c>
-      <c r="Q9" s="18">
-        <v>16</v>
-      </c>
-      <c r="R9" s="18">
-        <v>17</v>
-      </c>
-      <c r="S9" s="18">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>31</v>
       </c>
@@ -1792,63 +1287,15 @@
       <c r="C10" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="M10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="N10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="O10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="P10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="R10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="S10" s="16" t="s">
-        <v>32</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:S2">
-    <cfRule type="beginsWith" dxfId="3" priority="1" operator="beginsWith" text="Working">
+  <conditionalFormatting sqref="B2:C2">
+    <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="Working">
       <formula>LEFT((B2),LEN("Working"))=("Working")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:S2">
-    <cfRule type="beginsWith" dxfId="1" priority="2" operator="beginsWith" text="Not Working">
+  <conditionalFormatting sqref="B2:C2">
+    <cfRule type="beginsWith" dxfId="0" priority="2" operator="beginsWith" text="Not Working">
       <formula>LEFT((B2),LEN("Not Working"))=("Not Working")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1952,7 +1399,7 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="22" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
@@ -2017,7 +1464,7 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
+      <c r="A3" s="22"/>
       <c r="B3">
         <v>121212</v>
       </c>
@@ -2133,7 +1580,7 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="23" t="s">
         <v>62</v>
       </c>
       <c r="B12" t="s">
@@ -2159,7 +1606,7 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
+      <c r="A13" s="23"/>
       <c r="B13">
         <v>121212</v>
       </c>

--- a/ExecutionTestData/5/TestData.xlsx
+++ b/ExecutionTestData/5/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jai Mata Dii\DBS_Automation\ExecutionTestData\5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\finalList9Feb\batches\Batch5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="152">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -458,6 +458,9 @@
     <t>OPPO_A53_Android_10.0.0_bd07c</t>
   </si>
   <si>
+    <t>11.0.0</t>
+  </si>
+  <si>
     <t>EndPoint</t>
   </si>
   <si>
@@ -474,13 +477,31 @@
   </si>
   <si>
     <t>121212</t>
+  </si>
+  <si>
+    <t>10.0.0</t>
+  </si>
+  <si>
+    <t>VIVO_Y17_Android_9.0.0_41f40</t>
+  </si>
+  <si>
+    <t>MOTOROLA_OneVision_Android_9.0.0_3755b</t>
+  </si>
+  <si>
+    <t>VIVO_V9_Android_9.0.0_8f1e4</t>
+  </si>
+  <si>
+    <t>MOTOROLA_MotoG5SPlus_Android_8.1.0_01171</t>
+  </si>
+  <si>
+    <t>MOTOROLA_MotoG51_Android_11.0.0_d7f45</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -525,6 +546,11 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF202124"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -652,7 +678,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1019,7 +1045,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1069,7 +1095,7 @@
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -1119,7 +1145,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>15</v>
@@ -1166,19 +1192,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="37.85546875" customWidth="1"/>
     <col min="3" max="3" width="42" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" customWidth="1"/>
+    <col min="8" max="21" width="17.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
@@ -1188,19 +1217,127 @@
       <c r="C1" s="20" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="O1" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q1" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="R1" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="S1" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="T1" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="U1" s="20" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="O2" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q2" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="R2" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="S2" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="T2" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="21" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="U2" s="20" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
@@ -1210,8 +1347,62 @@
       <c r="C3" s="17" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="R3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="S3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="T3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="U3" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
@@ -1221,52 +1412,322 @@
       <c r="C4" s="12" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="R4" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="S4" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="U4" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="P5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="R5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="S5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="T5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="U5" s="19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="O6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="P6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="R6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="S6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="T6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="U6" s="15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="N7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="P7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="R7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="S7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="T7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="U7" s="16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="R8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="S8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="T8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="U8" s="16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
@@ -1276,8 +1737,62 @@
       <c r="C9" s="18">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="18">
+        <v>3</v>
+      </c>
+      <c r="E9" s="18">
+        <v>4</v>
+      </c>
+      <c r="F9" s="18">
+        <v>5</v>
+      </c>
+      <c r="G9" s="18">
+        <v>6</v>
+      </c>
+      <c r="H9" s="18">
+        <v>7</v>
+      </c>
+      <c r="I9" s="18">
+        <v>8</v>
+      </c>
+      <c r="J9" s="18">
+        <v>9</v>
+      </c>
+      <c r="K9" s="18">
+        <v>10</v>
+      </c>
+      <c r="L9" s="18">
+        <v>11</v>
+      </c>
+      <c r="M9" s="18">
+        <v>12</v>
+      </c>
+      <c r="N9" s="18">
+        <v>13</v>
+      </c>
+      <c r="O9" s="18">
+        <v>14</v>
+      </c>
+      <c r="P9" s="18">
+        <v>15</v>
+      </c>
+      <c r="Q9" s="18">
+        <v>16</v>
+      </c>
+      <c r="R9" s="18">
+        <v>17</v>
+      </c>
+      <c r="S9" s="18">
+        <v>18</v>
+      </c>
+      <c r="T9" s="18">
+        <v>19</v>
+      </c>
+      <c r="U9" s="18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>31</v>
       </c>
@@ -1287,14 +1802,68 @@
       <c r="C10" s="16" t="s">
         <v>32</v>
       </c>
+      <c r="D10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="R10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="S10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="T10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="U10" s="16" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:C2">
+  <conditionalFormatting sqref="B2:U2">
     <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="Working">
       <formula>LEFT((B2),LEN("Working"))=("Working")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:C2">
+  <conditionalFormatting sqref="B2:U2">
     <cfRule type="beginsWith" dxfId="0" priority="2" operator="beginsWith" text="Not Working">
       <formula>LEFT((B2),LEN("Not Working"))=("Not Working")</formula>
     </cfRule>

--- a/ExecutionTestData/5/TestData.xlsx
+++ b/ExecutionTestData/5/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\finalList9Feb\batches\Batch5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jai Mata Dii\DBS_Automation\ExecutionTestData\skippedBatch5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="173">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -458,9 +458,6 @@
     <t>OPPO_A53_Android_10.0.0_bd07c</t>
   </si>
   <si>
-    <t>11.0.0</t>
-  </si>
-  <si>
     <t>EndPoint</t>
   </si>
   <si>
@@ -479,29 +476,95 @@
     <t>121212</t>
   </si>
   <si>
-    <t>10.0.0</t>
-  </si>
-  <si>
-    <t>VIVO_Y17_Android_9.0.0_41f40</t>
-  </si>
-  <si>
-    <t>MOTOROLA_OneVision_Android_9.0.0_3755b</t>
-  </si>
-  <si>
-    <t>VIVO_V9_Android_9.0.0_8f1e4</t>
-  </si>
-  <si>
-    <t>MOTOROLA_MotoG5SPlus_Android_8.1.0_01171</t>
-  </si>
-  <si>
-    <t>MOTOROLA_MotoG51_Android_11.0.0_d7f45</t>
+    <t>APPLE_iPhoneX_iOS_14.0.0_1b718</t>
+  </si>
+  <si>
+    <t>APPLE_iPhoneSE2020_iOS_14.0.1_967aa</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone11_iOS_14.7.1_28411</t>
+  </si>
+  <si>
+    <t>APPLE_iPhoneXS_iOS_14.3.0_33b29</t>
+  </si>
+  <si>
+    <t>APPLE_iPhoneXSMax_iOS_15.0.0_9049f</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone11_iOS_15.0.2_4414a</t>
+  </si>
+  <si>
+    <t>APPLE_iPhoneXR_iOS_15.2.1_b3558</t>
+  </si>
+  <si>
+    <t>APPLE_iPhoneXS_iOS_15.0.1_e1cb7</t>
+  </si>
+  <si>
+    <t>APPLE_iPhoneXSMax_iOS_14.7.1_00b1e</t>
+  </si>
+  <si>
+    <t>14.0.0</t>
+  </si>
+  <si>
+    <t>14.0.1</t>
+  </si>
+  <si>
+    <t>14.7.1</t>
+  </si>
+  <si>
+    <t>14.3.0</t>
+  </si>
+  <si>
+    <t>15.0.0</t>
+  </si>
+  <si>
+    <t>15.0.2</t>
+  </si>
+  <si>
+    <t>15.2.1</t>
+  </si>
+  <si>
+    <t>15.0.1</t>
+  </si>
+  <si>
+    <t>APPLE_iPhoneSE_iOS_13.5.1_c982c</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone7_iOS_13.1.3_316f0</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone7plus_iOS_13.5.1_b1cc7</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone7plus_iOS_11.2.1_94b74</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone8_iOS_14.7.1_5ef5e</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone7_iOS_14.1.0_19d9f</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone8plus_iOS_14.3.0_a0940</t>
+  </si>
+  <si>
+    <t>13.5.1</t>
+  </si>
+  <si>
+    <t>13.1.3</t>
+  </si>
+  <si>
+    <t>11.2.1</t>
+  </si>
+  <si>
+    <t>14.1.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -543,16 +606,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF202124"/>
-      <name val="Arial"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -568,7 +621,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -606,27 +659,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -677,20 +715,37 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCC4125"/>
+          <bgColor rgb="FFCC4125"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1009,8 +1064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1045,7 +1100,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1095,7 +1150,7 @@
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -1145,7 +1200,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>15</v>
@@ -1192,10 +1247,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U10"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1204,209 +1259,173 @@
     <col min="3" max="3" width="42" customWidth="1"/>
     <col min="4" max="4" width="34.140625" customWidth="1"/>
     <col min="5" max="5" width="31.85546875" customWidth="1"/>
-    <col min="8" max="21" width="17.140625" style="12"/>
+    <col min="8" max="10" width="17.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="20" t="s">
+      <c r="B1" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="F1" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="L1" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="M1" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="N1" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="O1" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="P1" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q1" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="R1" s="20" t="s">
+      <c r="C1" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="N1" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="S1" s="20" t="s">
+      <c r="O1" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="P1" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q1" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="T1" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="U1" s="20" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="L2" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="M2" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="N2" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="O2" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="P2" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q2" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="R2" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="S2" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="T2" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="U2" s="20" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B2" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="N2" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="O2" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="P2" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q2" s="22" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L3" s="17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O3" s="17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P3" s="17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="R3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="S3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="T3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="U3" s="17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="12" t="s">
         <v>44</v>
       </c>
       <c r="C4" s="12" t="s">
@@ -1454,280 +1473,220 @@
       <c r="Q4" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="R4" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="S4" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="T4" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="U4" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L5" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M5" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N5" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O5" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P5" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="R5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="S5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="T5" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="U5" s="19" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M6" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O6" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P6" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="R6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="S6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="T6" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="U6" s="15" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K7" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L7" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M7" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N7" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O7" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P7" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="R7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="S7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="T7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="U7" s="16" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K8" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M8" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N8" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O8" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P8" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="R8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="S8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="T8" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="U8" s="16" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
@@ -1779,20 +1738,8 @@
       <c r="Q9" s="18">
         <v>16</v>
       </c>
-      <c r="R9" s="18">
-        <v>17</v>
-      </c>
-      <c r="S9" s="18">
-        <v>18</v>
-      </c>
-      <c r="T9" s="18">
-        <v>19</v>
-      </c>
-      <c r="U9" s="18">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>31</v>
       </c>
@@ -1844,28 +1791,26 @@
       <c r="Q10" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="R10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="S10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="T10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="U10" s="16" t="s">
-        <v>32</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:U2">
-    <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="Working">
+  <conditionalFormatting sqref="B2:K2">
+    <cfRule type="beginsWith" dxfId="3" priority="3" operator="beginsWith" text="Working">
       <formula>LEFT((B2),LEN("Working"))=("Working")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:U2">
+  <conditionalFormatting sqref="B2:K2">
+    <cfRule type="beginsWith" dxfId="2" priority="4" operator="beginsWith" text="Not Working">
+      <formula>LEFT((B2),LEN("Not Working"))=("Not Working")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:Q2">
+    <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="Working">
+      <formula>LEFT((L2),LEN("Working"))=("Working")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:Q2">
     <cfRule type="beginsWith" dxfId="0" priority="2" operator="beginsWith" text="Not Working">
-      <formula>LEFT((B2),LEN("Not Working"))=("Not Working")</formula>
+      <formula>LEFT((L2),LEN("Not Working"))=("Not Working")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1878,7 +1823,7 @@
   <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:U3"/>
+      <selection activeCell="B2" sqref="B2:T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1968,7 +1913,7 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="20" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
@@ -2033,7 +1978,7 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
+      <c r="A3" s="20"/>
       <c r="B3">
         <v>121212</v>
       </c>
@@ -2149,7 +2094,7 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="21" t="s">
         <v>62</v>
       </c>
       <c r="B12" t="s">
@@ -2175,7 +2120,7 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
+      <c r="A13" s="21"/>
       <c r="B13">
         <v>121212</v>
       </c>

--- a/ExecutionTestData/5/TestData.xlsx
+++ b/ExecutionTestData/5/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jai Mata Dii\DBS_Automation\ExecutionTestData\skippedBatch5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jai Mata Dii\DBS_Automation\ExecutionTestData\5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="167">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -476,9 +476,6 @@
     <t>121212</t>
   </si>
   <si>
-    <t>APPLE_iPhoneX_iOS_14.0.0_1b718</t>
-  </si>
-  <si>
     <t>APPLE_iPhoneSE2020_iOS_14.0.1_967aa</t>
   </si>
   <si>
@@ -491,21 +488,12 @@
     <t>APPLE_iPhoneXSMax_iOS_15.0.0_9049f</t>
   </si>
   <si>
-    <t>APPLE_iPhone11_iOS_15.0.2_4414a</t>
-  </si>
-  <si>
     <t>APPLE_iPhoneXR_iOS_15.2.1_b3558</t>
   </si>
   <si>
     <t>APPLE_iPhoneXS_iOS_15.0.1_e1cb7</t>
   </si>
   <si>
-    <t>APPLE_iPhoneXSMax_iOS_14.7.1_00b1e</t>
-  </si>
-  <si>
-    <t>14.0.0</t>
-  </si>
-  <si>
     <t>14.0.1</t>
   </si>
   <si>
@@ -518,9 +506,6 @@
     <t>15.0.0</t>
   </si>
   <si>
-    <t>15.0.2</t>
-  </si>
-  <si>
     <t>15.2.1</t>
   </si>
   <si>
@@ -543,9 +528,6 @@
   </si>
   <si>
     <t>APPLE_iPhone7_iOS_14.1.0_19d9f</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone8plus_iOS_14.3.0_a0940</t>
   </si>
   <si>
     <t>13.5.1</t>
@@ -716,36 +698,20 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCC4125"/>
-          <bgColor rgb="FFCC4125"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1247,128 +1213,106 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="37.85546875" customWidth="1"/>
-    <col min="3" max="3" width="42" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" customWidth="1"/>
-    <col min="5" max="5" width="31.85546875" customWidth="1"/>
-    <col min="8" max="10" width="17.140625" style="12"/>
+    <col min="3" max="3" width="34.140625" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" customWidth="1"/>
+    <col min="5" max="5" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" style="12"/>
+    <col min="8" max="8" width="32.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="K1" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="L1" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="D1" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="K1" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="L1" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="M1" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="N1" s="22" t="s">
+      <c r="M1" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="O1" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="P1" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q1" s="22" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="L2" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="L2" s="22" t="s">
+      <c r="M2" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="M2" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="N2" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="O2" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="P2" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q2" s="22" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
@@ -1408,20 +1352,8 @@
       <c r="M3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="O3" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="P3" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q3" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
@@ -1429,52 +1361,40 @@
         <v>44</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q4" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
@@ -1514,20 +1434,8 @@
       <c r="M5" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="N5" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="O5" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="P5" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q5" s="19" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
@@ -1567,20 +1475,8 @@
       <c r="M6" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="N6" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="O6" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="P6" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q6" s="15" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
@@ -1620,20 +1516,8 @@
       <c r="M7" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="N7" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="O7" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="P7" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q7" s="16" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
@@ -1673,20 +1557,8 @@
       <c r="M8" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="N8" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="O8" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="P8" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q8" s="16" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
@@ -1726,20 +1598,8 @@
       <c r="M9" s="18">
         <v>12</v>
       </c>
-      <c r="N9" s="18">
-        <v>13</v>
-      </c>
-      <c r="O9" s="18">
-        <v>14</v>
-      </c>
-      <c r="P9" s="18">
-        <v>15</v>
-      </c>
-      <c r="Q9" s="18">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>31</v>
       </c>
@@ -1779,38 +1639,16 @@
       <c r="M10" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="N10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="O10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="P10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q10" s="16" t="s">
-        <v>32</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:K2">
-    <cfRule type="beginsWith" dxfId="3" priority="3" operator="beginsWith" text="Working">
+  <conditionalFormatting sqref="B2:M2">
+    <cfRule type="beginsWith" dxfId="1" priority="3" operator="beginsWith" text="Working">
       <formula>LEFT((B2),LEN("Working"))=("Working")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:K2">
-    <cfRule type="beginsWith" dxfId="2" priority="4" operator="beginsWith" text="Not Working">
+  <conditionalFormatting sqref="B2:M2">
+    <cfRule type="beginsWith" dxfId="0" priority="4" operator="beginsWith" text="Not Working">
       <formula>LEFT((B2),LEN("Not Working"))=("Not Working")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L2:Q2">
-    <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="Working">
-      <formula>LEFT((L2),LEN("Working"))=("Working")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L2:Q2">
-    <cfRule type="beginsWith" dxfId="0" priority="2" operator="beginsWith" text="Not Working">
-      <formula>LEFT((L2),LEN("Not Working"))=("Not Working")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1913,7 +1751,7 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
@@ -1978,7 +1816,7 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
+      <c r="A3" s="21"/>
       <c r="B3">
         <v>121212</v>
       </c>
@@ -2094,7 +1932,7 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="22" t="s">
         <v>62</v>
       </c>
       <c r="B12" t="s">
@@ -2120,7 +1958,7 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
+      <c r="A13" s="22"/>
       <c r="B13">
         <v>121212</v>
       </c>

--- a/ExecutionTestData/5/TestData.xlsx
+++ b/ExecutionTestData/5/TestData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jai Mata Dii\DBS_Automation\ExecutionTestData\5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DBS bank\Milestone2_ExecutionTestRun1\Execution Results\ExecutionTestData\New folder\2_skippedBatch5\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F3887F-A0C5-4988-B89C-F61A9B4DC9B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Capabilities" sheetId="1" r:id="rId1"/>
@@ -545,7 +546,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -817,6 +818,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -852,6 +870,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1027,7 +1062,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1212,10 +1247,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
@@ -1657,7 +1692,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
@@ -2022,7 +2057,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A65"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/ExecutionTestData/5/TestData.xlsx
+++ b/ExecutionTestData/5/TestData.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DBS bank\Milestone2_ExecutionTestRun1\Execution Results\ExecutionTestData\New folder\2_skippedBatch5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\5_skipbatch\5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F3887F-A0C5-4988-B89C-F61A9B4DC9B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Capabilities" sheetId="1" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="162">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -483,15 +482,9 @@
     <t>APPLE_iPhone11_iOS_14.7.1_28411</t>
   </si>
   <si>
-    <t>APPLE_iPhoneXS_iOS_14.3.0_33b29</t>
-  </si>
-  <si>
     <t>APPLE_iPhoneXSMax_iOS_15.0.0_9049f</t>
   </si>
   <si>
-    <t>APPLE_iPhoneXR_iOS_15.2.1_b3558</t>
-  </si>
-  <si>
     <t>APPLE_iPhoneXS_iOS_15.0.1_e1cb7</t>
   </si>
   <si>
@@ -501,15 +494,9 @@
     <t>14.7.1</t>
   </si>
   <si>
-    <t>14.3.0</t>
-  </si>
-  <si>
     <t>15.0.0</t>
   </si>
   <si>
-    <t>15.2.1</t>
-  </si>
-  <si>
     <t>15.0.1</t>
   </si>
   <si>
@@ -517,9 +504,6 @@
   </si>
   <si>
     <t>APPLE_iPhone7_iOS_13.1.3_316f0</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone7plus_iOS_13.5.1_b1cc7</t>
   </si>
   <si>
     <t>APPLE_iPhone7plus_iOS_11.2.1_94b74</t>
@@ -546,7 +530,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -818,23 +802,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -870,23 +837,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1062,7 +1012,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1247,11 +1197,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1260,12 +1210,12 @@
     <col min="3" max="3" width="34.140625" customWidth="1"/>
     <col min="4" max="4" width="31.85546875" customWidth="1"/>
     <col min="5" max="5" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" style="12"/>
-    <col min="8" max="8" width="32.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="12"/>
+    <col min="7" max="7" width="32.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
@@ -1273,81 +1223,63 @@
         <v>146</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="I1" s="20" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="J1" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="K1" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="L1" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="M1" s="20" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="I2" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="I2" s="20" t="s">
+      <c r="J2" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="J2" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="L2" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="M2" s="20" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
@@ -1378,17 +1310,8 @@
       <c r="J3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
@@ -1405,31 +1328,22 @@
         <v>38</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="M4" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
@@ -1460,17 +1374,8 @@
       <c r="J5" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="K5" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
@@ -1501,17 +1406,8 @@
       <c r="J6" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="K6" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="M6" s="15" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
@@ -1542,17 +1438,8 @@
       <c r="J7" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="K7" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="L7" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="M7" s="16" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
@@ -1583,17 +1470,8 @@
       <c r="J8" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="K8" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="L8" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="M8" s="16" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
@@ -1610,31 +1488,22 @@
         <v>4</v>
       </c>
       <c r="F9" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G9" s="18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H9" s="18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I9" s="18">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J9" s="18">
-        <v>9</v>
-      </c>
-      <c r="K9" s="18">
-        <v>10</v>
-      </c>
-      <c r="L9" s="18">
-        <v>11</v>
-      </c>
-      <c r="M9" s="18">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>31</v>
       </c>
@@ -1665,23 +1534,14 @@
       <c r="J10" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="K10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="M10" s="16" t="s">
-        <v>32</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:M2">
+  <conditionalFormatting sqref="B2:J2">
     <cfRule type="beginsWith" dxfId="1" priority="3" operator="beginsWith" text="Working">
       <formula>LEFT((B2),LEN("Working"))=("Working")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:M2">
+  <conditionalFormatting sqref="B2:J2">
     <cfRule type="beginsWith" dxfId="0" priority="4" operator="beginsWith" text="Not Working">
       <formula>LEFT((B2),LEN("Not Working"))=("Not Working")</formula>
     </cfRule>
@@ -1692,7 +1552,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
@@ -2057,7 +1917,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A65"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/ExecutionTestData/5/TestData.xlsx
+++ b/ExecutionTestData/5/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\5_skipbatch\5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\automation_workspace5\DBS_Automation\ExecutionTestData\4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Capabilities" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="165">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -118,15 +118,6 @@
   </si>
   <si>
     <t>AppName</t>
-  </si>
-  <si>
-    <t>DBS</t>
-  </si>
-  <si>
-    <t>sakshi.juneja@crestechsoftware.com</t>
-  </si>
-  <si>
-    <t>t68k6kw68ywjv2y9zwfr9r3t</t>
   </si>
   <si>
     <t>S2021219EUID</t>
@@ -461,9 +452,6 @@
     <t>EndPoint</t>
   </si>
   <si>
-    <t>https://device.pcloudy.com</t>
-  </si>
-  <si>
     <t>Samsung</t>
   </si>
   <si>
@@ -476,55 +464,76 @@
     <t>121212</t>
   </si>
   <si>
-    <t>APPLE_iPhoneSE2020_iOS_14.0.1_967aa</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone11_iOS_14.7.1_28411</t>
-  </si>
-  <si>
-    <t>APPLE_iPhoneXSMax_iOS_15.0.0_9049f</t>
-  </si>
-  <si>
-    <t>APPLE_iPhoneXS_iOS_15.0.1_e1cb7</t>
-  </si>
-  <si>
-    <t>14.0.1</t>
-  </si>
-  <si>
-    <t>14.7.1</t>
+    <t>https://ind-west.pcloudy.com</t>
+  </si>
+  <si>
+    <t>XIAOMI_Mi11X_Android_11.0.0_9020d</t>
+  </si>
+  <si>
+    <t>REALME_realmeGTNeo2_Android_11.0.0_39c53</t>
+  </si>
+  <si>
+    <t>XIAOMI_RedmiNote8_Android_11.0.0_da311</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyA22_Android_11.0.0_74fa6</t>
+  </si>
+  <si>
+    <t>SAMSUNG_GalaxyM42_Android_11.0.0_95586</t>
+  </si>
+  <si>
+    <t>XIAOMI_RedmiGo_Android_8.1.0_1d174</t>
+  </si>
+  <si>
+    <t>REALME_8s_Android_11.0.0_403e0</t>
+  </si>
+  <si>
+    <t>APPLE_iPhoneXS_iOS_15.0.1_5b352</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone12_iOS_15.0.0_03540</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone12ProMax_iOS_15.1.1_ebe7c</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone12Pro_iOS_14.1.0_51937</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone11Pro_iOS_15.2.0_13a6e</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone11ProMax_iOS_15.1.0_17a94</t>
+  </si>
+  <si>
+    <t>APPLE_iPhoneXR_iOS_15.1.0_f0af6</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone11_iOS_15.1.0_2832d</t>
+  </si>
+  <si>
+    <t>APPLE_iPhoneX_iOS_15.1.0_9431f</t>
+  </si>
+  <si>
+    <t>DBS</t>
+  </si>
+  <si>
+    <t>15.0.1</t>
   </si>
   <si>
     <t>15.0.0</t>
   </si>
   <si>
-    <t>15.0.1</t>
-  </si>
-  <si>
-    <t>APPLE_iPhoneSE_iOS_13.5.1_c982c</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone7_iOS_13.1.3_316f0</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone7plus_iOS_11.2.1_94b74</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone8_iOS_14.7.1_5ef5e</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone7_iOS_14.1.0_19d9f</t>
-  </si>
-  <si>
-    <t>13.5.1</t>
-  </si>
-  <si>
-    <t>13.1.3</t>
-  </si>
-  <si>
-    <t>11.2.1</t>
+    <t>15.1.1</t>
   </si>
   <si>
     <t>14.1.0</t>
+  </si>
+  <si>
+    <t>15.2.0</t>
+  </si>
+  <si>
+    <t>15.1.0</t>
   </si>
 </sst>
 </file>
@@ -588,7 +597,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -626,12 +635,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -682,9 +721,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -696,7 +734,39 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCC4125"/>
+          <bgColor rgb="FFCC4125"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCC4125"/>
+          <bgColor rgb="FFCC4125"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6AA84F"/>
+          <bgColor rgb="FF6AA84F"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1016,7 +1086,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1051,7 +1121,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1101,7 +1171,7 @@
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -1128,13 +1198,13 @@
         <v>5</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>21</v>
@@ -1151,7 +1221,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>15</v>
@@ -1178,13 +1248,13 @@
         <v>5</v>
       </c>
       <c r="M3" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O3" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="P3" s="5" t="s">
         <v>21</v>
@@ -1198,85 +1268,84 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="37.85546875" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" customWidth="1"/>
-    <col min="5" max="5" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" style="12"/>
-    <col min="7" max="7" width="32.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="8" max="10" width="17.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>146</v>
+      <c r="B1" s="21" t="s">
+        <v>149</v>
       </c>
       <c r="C1" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="G1" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="H1" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="J1" s="20" t="s">
         <v>157</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="C2" s="20" t="s">
+      <c r="B2" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="C2" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="E2" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>151</v>
+      <c r="E2" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1316,31 +1385,31 @@
         <v>23</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="H4" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="I4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>48</v>
-      </c>
       <c r="J4" s="12" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1348,31 +1417,31 @@
         <v>24</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1380,31 +1449,31 @@
         <v>27</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1412,31 +1481,31 @@
         <v>28</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1444,31 +1513,31 @@
         <v>29</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1488,19 +1557,19 @@
         <v>4</v>
       </c>
       <c r="F9" s="18">
+        <v>5</v>
+      </c>
+      <c r="G9" s="18">
         <v>6</v>
       </c>
-      <c r="G9" s="18">
+      <c r="H9" s="18">
         <v>7</v>
       </c>
-      <c r="H9" s="18">
+      <c r="I9" s="18">
         <v>8</v>
       </c>
-      <c r="I9" s="18">
-        <v>11</v>
-      </c>
       <c r="J9" s="18">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1508,42 +1577,98 @@
         <v>31</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>32</v>
+        <v>158</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>32</v>
+        <v>158</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>32</v>
+        <v>158</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>32</v>
+        <v>158</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>32</v>
+        <v>158</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>32</v>
+        <v>158</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>32</v>
+        <v>158</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>32</v>
+        <v>158</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>32</v>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="20" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="20" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="20" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="20" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:J2">
-    <cfRule type="beginsWith" dxfId="1" priority="3" operator="beginsWith" text="Working">
+  <conditionalFormatting sqref="B2:H2">
+    <cfRule type="beginsWith" dxfId="5" priority="5" operator="beginsWith" text="Working">
       <formula>LEFT((B2),LEN("Working"))=("Working")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:J2">
-    <cfRule type="beginsWith" dxfId="0" priority="4" operator="beginsWith" text="Not Working">
+  <conditionalFormatting sqref="B2:H2">
+    <cfRule type="beginsWith" dxfId="4" priority="6" operator="beginsWith" text="Not Working">
       <formula>LEFT((B2),LEN("Not Working"))=("Not Working")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2">
+    <cfRule type="beginsWith" dxfId="3" priority="3" operator="beginsWith" text="Working">
+      <formula>LEFT((I2),LEN("Working"))=("Working")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2">
+    <cfRule type="beginsWith" dxfId="2" priority="4" operator="beginsWith" text="Not Working">
+      <formula>LEFT((I2),LEN("Not Working"))=("Not Working")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2">
+    <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="Working">
+      <formula>LEFT((J2),LEN("Working"))=("Working")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2">
+    <cfRule type="beginsWith" dxfId="0" priority="2" operator="beginsWith" text="Not Working">
+      <formula>LEFT((J2),LEN("Not Working"))=("Not Working")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1555,8 +1680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:T2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1646,72 +1771,72 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
-        <v>55</v>
+      <c r="A2" s="22" t="s">
+        <v>52</v>
       </c>
       <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" t="s">
         <v>44</v>
       </c>
-      <c r="C2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>45</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>46</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
         <v>47</v>
       </c>
-      <c r="O2" t="s">
+      <c r="R2" t="s">
         <v>48</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" t="s">
         <v>49</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="T2" t="s">
         <v>50</v>
       </c>
-      <c r="R2" t="s">
+      <c r="U2" t="s">
         <v>51</v>
       </c>
-      <c r="S2" t="s">
-        <v>52</v>
-      </c>
-      <c r="T2" t="s">
-        <v>53</v>
-      </c>
-      <c r="U2" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
+      <c r="A3" s="22"/>
       <c r="B3">
         <v>121212</v>
       </c>
@@ -1775,32 +1900,32 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -1827,33 +1952,33 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" t="s">
         <v>62</v>
       </c>
-      <c r="B12" t="s">
+      <c r="E12" t="s">
         <v>63</v>
       </c>
-      <c r="C12" t="s">
+      <c r="F12" t="s">
         <v>64</v>
       </c>
-      <c r="D12" t="s">
+      <c r="G12" t="s">
         <v>65</v>
       </c>
-      <c r="E12" t="s">
+      <c r="H12" t="s">
         <v>66</v>
       </c>
-      <c r="F12" t="s">
-        <v>67</v>
-      </c>
-      <c r="G12" t="s">
-        <v>68</v>
-      </c>
-      <c r="H12" t="s">
-        <v>69</v>
-      </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
+      <c r="A13" s="23"/>
       <c r="B13">
         <v>121212</v>
       </c>
@@ -1878,32 +2003,32 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1931,327 +2056,327 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="13" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="13" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="13" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="13" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="13" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="13" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="13" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="13" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="13" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="13" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="13" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="13" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="13" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="13" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="13" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="13" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/ExecutionTestData/5/TestData.xlsx
+++ b/ExecutionTestData/5/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\automation_workspace5\DBS_Automation\ExecutionTestData\4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newBatchskip-testdata\Batch10\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Capabilities" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,12 @@
     <sheet name="Test Data" sheetId="5" r:id="rId3"/>
     <sheet name="DeviceMasterSheet" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="156">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>AppName</t>
+  </si>
+  <si>
+    <t>DBS</t>
   </si>
   <si>
     <t>S2021219EUID</t>
@@ -464,76 +467,46 @@
     <t>121212</t>
   </si>
   <si>
-    <t>https://ind-west.pcloudy.com</t>
-  </si>
-  <si>
-    <t>XIAOMI_Mi11X_Android_11.0.0_9020d</t>
-  </si>
-  <si>
-    <t>REALME_realmeGTNeo2_Android_11.0.0_39c53</t>
-  </si>
-  <si>
-    <t>XIAOMI_RedmiNote8_Android_11.0.0_da311</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyA22_Android_11.0.0_74fa6</t>
-  </si>
-  <si>
-    <t>SAMSUNG_GalaxyM42_Android_11.0.0_95586</t>
-  </si>
-  <si>
-    <t>XIAOMI_RedmiGo_Android_8.1.0_1d174</t>
-  </si>
-  <si>
-    <t>REALME_8s_Android_11.0.0_403e0</t>
-  </si>
-  <si>
-    <t>APPLE_iPhoneXS_iOS_15.0.1_5b352</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone12_iOS_15.0.0_03540</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone12ProMax_iOS_15.1.1_ebe7c</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone12Pro_iOS_14.1.0_51937</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone11Pro_iOS_15.2.0_13a6e</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone11ProMax_iOS_15.1.0_17a94</t>
-  </si>
-  <si>
-    <t>APPLE_iPhoneXR_iOS_15.1.0_f0af6</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone11_iOS_15.1.0_2832d</t>
-  </si>
-  <si>
-    <t>APPLE_iPhoneX_iOS_15.1.0_9431f</t>
-  </si>
-  <si>
-    <t>DBS</t>
-  </si>
-  <si>
-    <t>15.0.1</t>
-  </si>
-  <si>
-    <t>15.0.0</t>
-  </si>
-  <si>
-    <t>15.1.1</t>
-  </si>
-  <si>
-    <t>14.1.0</t>
-  </si>
-  <si>
-    <t>15.2.0</t>
-  </si>
-  <si>
-    <t>15.1.0</t>
+    <t>https://us.pcloudy.com</t>
+  </si>
+  <si>
+    <t>APPLE_iPhoneSE_iOS_14.6.0_9d61f</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone7_iOS_14.4.0_589b8</t>
+  </si>
+  <si>
+    <t>14.4.0</t>
+  </si>
+  <si>
+    <t>14.6.0</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone11_iOS_15.2.1_51b24</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone11Pro_iOS_13.0.0_3f7e0</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone11Pro_iOS_15.2.1_f9522</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone13ProMax_iOS_15.0.2_2f19</t>
+  </si>
+  <si>
+    <t>APPLE_iPhoneXR_iOS_12.0.1_93659</t>
+  </si>
+  <si>
+    <t>15.2.1</t>
+  </si>
+  <si>
+    <t>13.0.0</t>
+  </si>
+  <si>
+    <t>15.0.2</t>
+  </si>
+  <si>
+    <t>12.0.1</t>
   </si>
 </sst>
 </file>
@@ -637,31 +610,31 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="FFCCCCCC"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -721,52 +694,20 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCC4125"/>
-          <bgColor rgb="FFCC4125"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCC4125"/>
-          <bgColor rgb="FFCC4125"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1085,8 +1026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1121,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1171,7 +1112,7 @@
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -1198,13 +1139,13 @@
         <v>5</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>21</v>
@@ -1221,7 +1162,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>15</v>
@@ -1248,13 +1189,13 @@
         <v>5</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P3" s="5" t="s">
         <v>21</v>
@@ -1268,10 +1209,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1280,75 +1221,61 @@
     <col min="3" max="3" width="42" customWidth="1"/>
     <col min="4" max="4" width="34.140625" customWidth="1"/>
     <col min="5" max="5" width="31.85546875" customWidth="1"/>
-    <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="8" max="10" width="17.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="E1" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="F1" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="H1" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="E1" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
@@ -1370,177 +1297,123 @@
       <c r="G3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>41</v>
+      <c r="B4" s="19" t="s">
+        <v>42</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
@@ -1562,113 +1435,39 @@
       <c r="G9" s="18">
         <v>6</v>
       </c>
-      <c r="H9" s="18">
-        <v>7</v>
-      </c>
-      <c r="I9" s="18">
-        <v>8</v>
-      </c>
-      <c r="J9" s="18">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>31</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>158</v>
+        <v>32</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>158</v>
+        <v>32</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>158</v>
+        <v>32</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>158</v>
+        <v>32</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>158</v>
+        <v>32</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="20" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="20" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="20" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="20" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="20" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="20" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="20" t="s">
-        <v>148</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:H2">
-    <cfRule type="beginsWith" dxfId="5" priority="5" operator="beginsWith" text="Working">
+  <conditionalFormatting sqref="B2:G2">
+    <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="Working">
       <formula>LEFT((B2),LEN("Working"))=("Working")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:H2">
-    <cfRule type="beginsWith" dxfId="4" priority="6" operator="beginsWith" text="Not Working">
-      <formula>LEFT((B2),LEN("Not Working"))=("Not Working")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2">
-    <cfRule type="beginsWith" dxfId="3" priority="3" operator="beginsWith" text="Working">
-      <formula>LEFT((I2),LEN("Working"))=("Working")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2">
-    <cfRule type="beginsWith" dxfId="2" priority="4" operator="beginsWith" text="Not Working">
-      <formula>LEFT((I2),LEN("Not Working"))=("Not Working")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2">
-    <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="Working">
-      <formula>LEFT((J2),LEN("Working"))=("Working")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2">
-    <cfRule type="beginsWith" dxfId="0" priority="2" operator="beginsWith" text="Not Working">
-      <formula>LEFT((J2),LEN("Not Working"))=("Not Working")</formula>
+  <conditionalFormatting sqref="B2:G2">
+    <cfRule type="beginsWith" dxfId="0" priority="2" operator="beginsWith" text="Not working">
+      <formula>LEFT((B2),LEN("Not working"))=("Not working")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1680,8 +1479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:J2"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1771,72 +1570,72 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U2" t="s">
         <v>52</v>
       </c>
-      <c r="B2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N2" t="s">
-        <v>44</v>
-      </c>
-      <c r="O2" t="s">
-        <v>45</v>
-      </c>
-      <c r="P2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>47</v>
-      </c>
-      <c r="R2" t="s">
-        <v>48</v>
-      </c>
-      <c r="S2" t="s">
-        <v>49</v>
-      </c>
-      <c r="T2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U2" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
+      <c r="A3" s="20"/>
       <c r="B3">
         <v>121212</v>
       </c>
@@ -1900,32 +1699,32 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -1952,33 +1751,33 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
-        <v>59</v>
+      <c r="A12" s="21" t="s">
+        <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
+      <c r="A13" s="21"/>
       <c r="B13">
         <v>121212</v>
       </c>
@@ -2003,32 +1802,32 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2056,327 +1855,327 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/ExecutionTestData/5/TestData.xlsx
+++ b/ExecutionTestData/5/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lastpririority batch\1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bl-device\3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="145">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -452,9 +452,6 @@
     <t>OPPO_A53_Android_10.0.0_bd07c</t>
   </si>
   <si>
-    <t>11.0.0</t>
-  </si>
-  <si>
     <t>EndPoint</t>
   </si>
   <si>
@@ -470,22 +467,13 @@
     <t>121212</t>
   </si>
   <si>
-    <t>10.0.0</t>
+    <t>APPLE_iPhone7_iOS_14.1.0_19d9f</t>
+  </si>
+  <si>
+    <t>14.1.0</t>
   </si>
   <si>
     <t>https://device.pcloudy.com</t>
-  </si>
-  <si>
-    <t>GOOGLE_Pixel2_Android_11.0.0_c2579</t>
-  </si>
-  <si>
-    <t>XIAOMI_Mi11Lite_Android_11.0.0_18ffa</t>
-  </si>
-  <si>
-    <t>MOTOROLA_MotoG51_Android_11.0.0_d7f45</t>
-  </si>
-  <si>
-    <t>XIAOMI_PocoX2_Android_10.0.0_9e081-batch4</t>
   </si>
 </sst>
 </file>
@@ -549,7 +537,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -589,31 +577,16 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="FFCCCCCC"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,7 +595,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -673,8 +646,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1006,7 +978,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1041,7 +1013,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1188,198 +1160,105 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="37.85546875" customWidth="1"/>
-    <col min="3" max="3" width="42" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" customWidth="1"/>
-    <col min="5" max="5" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="E2" s="12" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="18">
-        <v>1</v>
-      </c>
-      <c r="C9" s="18">
         <v>2</v>
       </c>
-      <c r="D9" s="18">
-        <v>3</v>
-      </c>
-      <c r="E9" s="18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>31</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>32</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:E2">
-    <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="Working">
+  <conditionalFormatting sqref="B2">
+    <cfRule type="beginsWith" dxfId="1" priority="3" operator="beginsWith" text="Working">
       <formula>LEFT((B2),LEN("Working"))=("Working")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:E2">
-    <cfRule type="beginsWith" dxfId="0" priority="2" operator="beginsWith" text="Not Working">
+  <conditionalFormatting sqref="B2">
+    <cfRule type="beginsWith" dxfId="0" priority="4" operator="beginsWith" text="Not Working">
       <formula>LEFT((B2),LEN("Not Working"))=("Not Working")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1393,7 +1272,7 @@
   <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E2"/>
+      <selection activeCell="B2" sqref="B2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1483,7 +1362,7 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>53</v>
       </c>
       <c r="B2" t="s">
@@ -1548,7 +1427,7 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
+      <c r="A3" s="21"/>
       <c r="B3">
         <v>121212</v>
       </c>
@@ -1664,7 +1543,7 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="22" t="s">
         <v>60</v>
       </c>
       <c r="B12" t="s">
@@ -1690,7 +1569,7 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
+      <c r="A13" s="22"/>
       <c r="B13">
         <v>121212</v>
       </c>

--- a/ExecutionTestData/5/TestData.xlsx
+++ b/ExecutionTestData/5/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bl-device\3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shafqat.ali\Desktop\jaya credential batches\5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Capabilities" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="152">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -121,6 +121,12 @@
   </si>
   <si>
     <t>DBS</t>
+  </si>
+  <si>
+    <t>sakshi.juneja@crestechsoftware.com</t>
+  </si>
+  <si>
+    <t>t68k6kw68ywjv2y9zwfr9r3t</t>
   </si>
   <si>
     <t>S2021219EUID</t>
@@ -452,9 +458,30 @@
     <t>OPPO_A53_Android_10.0.0_bd07c</t>
   </si>
   <si>
+    <t>11.0.0</t>
+  </si>
+  <si>
     <t>EndPoint</t>
   </si>
   <si>
+    <t>https://device.pcloudy.com</t>
+  </si>
+  <si>
+    <t>iWEALTH</t>
+  </si>
+  <si>
+    <t>NSTRAX15</t>
+  </si>
+  <si>
+    <t>425455</t>
+  </si>
+  <si>
+    <t>NSTRAX10</t>
+  </si>
+  <si>
+    <t>872465</t>
+  </si>
+  <si>
     <t>Samsung</t>
   </si>
   <si>
@@ -464,16 +491,10 @@
     <t>9.0.0</t>
   </si>
   <si>
-    <t>121212</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone7_iOS_14.1.0_19d9f</t>
-  </si>
-  <si>
-    <t>14.1.0</t>
-  </si>
-  <si>
-    <t>https://device.pcloudy.com</t>
+    <t>SAMSUNG_GalaxyA72_Android_12.0.0_0e2fb</t>
+  </si>
+  <si>
+    <t>12.0.0</t>
   </si>
 </sst>
 </file>
@@ -523,7 +544,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -534,6 +555,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF00FFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -576,17 +609,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
+      <left style="thin">
+        <color rgb="FF000000"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
+      <right style="thin">
+        <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -645,8 +678,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -658,24 +691,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCC4125"/>
-          <bgColor rgb="FFCC4125"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF6AA84F"/>
-          <bgColor rgb="FF6AA84F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -978,7 +994,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,7 +1029,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1063,7 +1079,7 @@
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -1090,13 +1106,13 @@
         <v>5</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>21</v>
@@ -1113,7 +1129,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>15</v>
@@ -1140,13 +1156,13 @@
         <v>5</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P3" s="5" t="s">
         <v>21</v>
@@ -1160,108 +1176,139 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="42" customWidth="1"/>
+    <col min="2" max="3" width="42.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="18">
+        <v>1</v>
+      </c>
+      <c r="C9" s="18">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>31</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>32</v>
       </c>
-    </row>
+      <c r="C10" s="16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="B2">
-    <cfRule type="beginsWith" dxfId="1" priority="3" operator="beginsWith" text="Working">
-      <formula>LEFT((B2),LEN("Working"))=("Working")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2">
-    <cfRule type="beginsWith" dxfId="0" priority="4" operator="beginsWith" text="Not Working">
-      <formula>LEFT((B2),LEN("Not Working"))=("Not Working")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="45" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1271,8 +1318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H2"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1363,67 +1410,67 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>50</v>
+      </c>
+      <c r="R2" t="s">
+        <v>51</v>
+      </c>
+      <c r="S2" t="s">
+        <v>52</v>
+      </c>
+      <c r="T2" t="s">
         <v>53</v>
       </c>
-      <c r="B2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M2" t="s">
-        <v>44</v>
-      </c>
-      <c r="N2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P2" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>48</v>
-      </c>
-      <c r="R2" t="s">
-        <v>49</v>
-      </c>
-      <c r="S2" t="s">
-        <v>50</v>
-      </c>
-      <c r="T2" t="s">
-        <v>51</v>
-      </c>
       <c r="U2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -1491,32 +1538,32 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -1544,28 +1591,28 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -1594,32 +1641,32 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1647,327 +1694,327 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="13" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="13" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="13" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="13" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="13" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="13" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="13" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="13" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="13" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="13" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="13" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="13" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="13" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="13" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="13" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="13" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="13" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="13" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="13" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="13" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="13" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="13" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="13" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="13" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="13" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/ExecutionTestData/5/TestData.xlsx
+++ b/ExecutionTestData/5/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shafqat.ali\Desktop\jaya credential batches\5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shafqat.ali\Desktop\jaya credential batches\10\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="151">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -491,10 +491,7 @@
     <t>9.0.0</t>
   </si>
   <si>
-    <t>SAMSUNG_GalaxyA72_Android_12.0.0_0e2fb</t>
-  </si>
-  <si>
-    <t>12.0.0</t>
+    <t>10.0.0</t>
   </si>
 </sst>
 </file>
@@ -1179,7 +1176,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1192,10 +1189,10 @@
         <v>19</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1203,10 +1200,10 @@
         <v>20</v>
       </c>
       <c r="B2" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>139</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">

--- a/ExecutionTestData/5/TestData.xlsx
+++ b/ExecutionTestData/5/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shafqat.ali\Desktop\jaya credential batches\rerun batches\11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\final run master testdata\5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Capabilities" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="159">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -121,12 +121,6 @@
   </si>
   <si>
     <t>DBS</t>
-  </si>
-  <si>
-    <t>sakshi.juneja@crestechsoftware.com</t>
-  </si>
-  <si>
-    <t>t68k6kw68ywjv2y9zwfr9r3t</t>
   </si>
   <si>
     <t>S2021219EUID</t>
@@ -458,22 +452,13 @@
     <t>OPPO_A53_Android_10.0.0_bd07c</t>
   </si>
   <si>
+    <t>11.0.0</t>
+  </si>
+  <si>
     <t>EndPoint</t>
   </si>
   <si>
-    <t>iWEALTH</t>
-  </si>
-  <si>
-    <t>NSTRAX15</t>
-  </si>
-  <si>
-    <t>425455</t>
-  </si>
-  <si>
-    <t>NSTRAX10</t>
-  </si>
-  <si>
-    <t>872465</t>
+    <t>https://device.pcloudy.com</t>
   </si>
   <si>
     <t>Samsung</t>
@@ -485,19 +470,52 @@
     <t>9.0.0</t>
   </si>
   <si>
-    <t>APPLE_iPhone11Pro_iOS_14.4.0_6ccce</t>
-  </si>
-  <si>
-    <t>14.4.0</t>
-  </si>
-  <si>
-    <t>https://us.pcloudy.com</t>
-  </si>
-  <si>
-    <t>APPLE_iPhone8_iOS_14.1.0_81551</t>
-  </si>
-  <si>
-    <t>14.1.0</t>
+    <t>121212</t>
+  </si>
+  <si>
+    <t>10.0.0</t>
+  </si>
+  <si>
+    <t>VIVO_Y17_Android_9.0.0_41f40</t>
+  </si>
+  <si>
+    <t>HUAWEI_P30Lite_Android_10.0.0_693f0</t>
+  </si>
+  <si>
+    <t>HUAWEI_nova3i_Android_8.1.0_c7f62</t>
+  </si>
+  <si>
+    <t>MOTOROLA_OneVision_Android_9.0.0_3755b</t>
+  </si>
+  <si>
+    <t>HUAWEI_P20Pro_Android_10.0.0_dec7f</t>
+  </si>
+  <si>
+    <t>VIVO_V9_Android_9.0.0_8f1e4</t>
+  </si>
+  <si>
+    <t>HUAWEI_Honor9A_Android_10.0.0_d1e87</t>
+  </si>
+  <si>
+    <t>MOTOROLA_MotoG5SPlus_Android_8.1.0_01171</t>
+  </si>
+  <si>
+    <t>MOTOROLA_MotoG51_Android_11.0.0_d7f45</t>
+  </si>
+  <si>
+    <t>OPPO_A74_Android_11.0.0_a3ebb</t>
+  </si>
+  <si>
+    <t>HUAWEI_Y6_Android_8.0.0_029bf</t>
+  </si>
+  <si>
+    <t>HUAWEI_Honor20i_Android_10.0.0_3641a</t>
+  </si>
+  <si>
+    <t>OPPO_F7_Android_10.0.0_f14bd</t>
+  </si>
+  <si>
+    <t>8.0.0</t>
   </si>
 </sst>
 </file>
@@ -547,7 +565,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -558,18 +576,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor rgb="FFFF9900"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor rgb="FF00FFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -681,8 +687,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -997,7 +1003,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1032,7 +1038,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1082,7 +1088,7 @@
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -1109,13 +1115,13 @@
         <v>5</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>21</v>
@@ -1132,7 +1138,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>15</v>
@@ -1159,13 +1165,13 @@
         <v>5</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O3" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="P3" s="5" t="s">
         <v>21</v>
@@ -1179,112 +1185,542 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" customWidth="1"/>
+    <col min="3" max="3" width="42" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" customWidth="1"/>
+    <col min="8" max="16" width="17.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="L1" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="M1" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="O1" s="20" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="P1" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q1" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="R1" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="S1" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="T1" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="U1" s="20" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="O2" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q2" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="R2" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="S2" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="T2" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="U2" s="20" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="R3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="S3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="T3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="U3" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="R4" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="S4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="U4" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="P5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="R5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="S5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="T5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="U5" s="19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="O6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="P6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="R6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="S6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="T6" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="U6" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="N7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="P7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="R7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="S7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="T7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="U7" s="16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="R8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="S8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="T8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="U8" s="16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
@@ -1294,8 +1730,62 @@
       <c r="C9" s="18">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D9" s="18">
+        <v>3</v>
+      </c>
+      <c r="E9" s="18">
+        <v>4</v>
+      </c>
+      <c r="F9" s="18">
+        <v>5</v>
+      </c>
+      <c r="G9" s="18">
+        <v>6</v>
+      </c>
+      <c r="H9" s="18">
+        <v>7</v>
+      </c>
+      <c r="I9" s="18">
+        <v>8</v>
+      </c>
+      <c r="J9" s="18">
+        <v>9</v>
+      </c>
+      <c r="K9" s="18">
+        <v>10</v>
+      </c>
+      <c r="L9" s="18">
+        <v>11</v>
+      </c>
+      <c r="M9" s="18">
+        <v>12</v>
+      </c>
+      <c r="N9" s="18">
+        <v>13</v>
+      </c>
+      <c r="O9" s="18">
+        <v>14</v>
+      </c>
+      <c r="P9" s="18">
+        <v>15</v>
+      </c>
+      <c r="Q9" s="18">
+        <v>16</v>
+      </c>
+      <c r="R9" s="18">
+        <v>17</v>
+      </c>
+      <c r="S9" s="18">
+        <v>18</v>
+      </c>
+      <c r="T9" s="18">
+        <v>19</v>
+      </c>
+      <c r="U9" s="18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>31</v>
       </c>
@@ -1303,14 +1793,63 @@
         <v>32</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-    </row>
-    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>32</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="R10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="S10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="T10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="U10" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="45" orientation="portrait" r:id="rId1"/>
@@ -1321,8 +1860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:X3"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1413,67 +1952,67 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" t="s">
         <v>44</v>
       </c>
-      <c r="C2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>45</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>46</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>47</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>48</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>49</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>50</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>51</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>52</v>
-      </c>
-      <c r="T2" t="s">
-        <v>53</v>
-      </c>
-      <c r="U2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -1541,32 +2080,32 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -1594,28 +2133,28 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" t="s">
         <v>62</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
         <v>63</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>64</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>65</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
         <v>66</v>
       </c>
-      <c r="F12" t="s">
+      <c r="H12" t="s">
         <v>67</v>
-      </c>
-      <c r="G12" t="s">
-        <v>68</v>
-      </c>
-      <c r="H12" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -1644,32 +2183,32 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1697,327 +2236,327 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
